--- a/Assets/Shared/ExcelImporter/Excels/Player/RuneCombinableNumDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Player/RuneCombinableNumDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B1FEC-9BB9-44DC-A833-79BE7A9661C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7D24AD-2A45-4398-9765-F8C5DF799D8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RuneCombinableNumExcelDatas" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
   <dimension ref="A1:M570"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3"/>
     </row>
@@ -433,7 +433,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4"/>
     </row>
@@ -442,7 +442,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5"/>
     </row>
